--- a/Huan/Web-job-data/internship.xlsx
+++ b/Huan/Web-job-data/internship.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\study\Ngon ngu lap trinh\Python\Thuc hanh\Scraping\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Hoang\source\repos\Teamb_Scraping_data\Huan\Web-job-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45100AF5-4E42-4641-AA8E-CA947A3C1D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8078ABB-0B10-4EA8-8BDD-9042F70AE198}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -699,6 +699,49 @@
 •	A chance to earn an official position at RTA.
 Please send your résumé (CV) to careers@rta.vn (cc apply@internship.edu.vn)  as a way to give yourself a chance in this new field and build your own dream.
 </t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAREERS@RTA.VN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HR@CONTEMI.COM.VN
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAREERS@VN.ZALORA.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTA@LRGLOBAL.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BCG-HCMC@BCG.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HR@VATGIA.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEOPLE@EPSILON-MOBILE.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HR@EPSILON-MOBILE.COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0835471164 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAREERS@RTA.VN APPLY@INTERNSHIP.EDU.VN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAREERS@RTA.VN APPLY@INTERNSHIP.EDU.VN</t>
   </si>
 </sst>
 </file>
@@ -757,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -765,6 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1161,12 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="173.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,8 +1191,14 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1174,8 +1226,14 @@
       <c r="I2" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1203,8 +1261,14 @@
       <c r="I3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1232,8 +1296,14 @@
       <c r="I4" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1261,8 +1331,14 @@
       <c r="I5" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1290,8 +1366,14 @@
       <c r="I6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1319,8 +1401,14 @@
       <c r="I7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1348,8 +1436,14 @@
       <c r="I8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1377,8 +1471,14 @@
       <c r="I9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1406,8 +1506,14 @@
       <c r="I10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1435,8 +1541,14 @@
       <c r="I11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1464,8 +1576,14 @@
       <c r="I12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -1493,8 +1611,14 @@
       <c r="I13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -1522,8 +1646,14 @@
       <c r="I14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1551,8 +1681,14 @@
       <c r="I15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -1580,8 +1716,14 @@
       <c r="I16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>27</v>
       </c>
@@ -1609,8 +1751,14 @@
       <c r="I17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>28</v>
       </c>
@@ -1638,8 +1786,14 @@
       <c r="I18" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -1667,8 +1821,14 @@
       <c r="I19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -1696,8 +1856,14 @@
       <c r="I20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -1724,6 +1890,12 @@
       </c>
       <c r="I21" t="s">
         <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
